--- a/graph_combined.xlsx
+++ b/graph_combined.xlsx
@@ -51,9 +51,6 @@
     <t>doc2vec</t>
   </si>
   <si>
-    <t>tf-idf</t>
-  </si>
-  <si>
     <t>BLEU Score, unigrams</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
   </si>
   <si>
     <t>LSTM (Lowe et al.)</t>
-  </si>
-  <si>
-    <t>minibatch k-mean, NB Gaussian (sklearn)</t>
-  </si>
-  <si>
-    <t>minibatch k-means, NB Gaussian, 100 trials (native)</t>
   </si>
   <si>
     <t>LDA, 1000 trials</t>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>yo</t>
+  </si>
+  <si>
+    <t>minibatch k-means, NB Gaussian, 100 trials (native)</t>
+  </si>
+  <si>
+    <t>minibatch k-means, NB Gaussian (sklearn)</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,7 @@
                   <c:v>BLEU Score, trigrams</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>tf-idf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>word2vec, averaged</c:v>
@@ -214,7 +214,7 @@
                   <c:v>LDA, 1000 trials</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>minibatch k-mean, NB Gaussian (sklearn)</c:v>
+                  <c:v>minibatch k-means, NB Gaussian (sklearn)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>minibatch k-means, NB Gaussian, 100 trials (native)</c:v>
@@ -268,7 +268,7 @@
                   <c:v>0.162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.403</c:v>
@@ -328,7 +328,7 @@
                   <c:v>BLEU Score, trigrams</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>tf-idf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>word2vec, averaged</c:v>
@@ -340,7 +340,7 @@
                   <c:v>LDA, 1000 trials</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>minibatch k-mean, NB Gaussian (sklearn)</c:v>
+                  <c:v>minibatch k-means, NB Gaussian (sklearn)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>minibatch k-means, NB Gaussian, 100 trials (native)</c:v>
@@ -394,7 +394,7 @@
                   <c:v>0.266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.547</c:v>
@@ -454,7 +454,7 @@
                   <c:v>BLEU Score, trigrams</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>tf-idf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>word2vec, averaged</c:v>
@@ -466,7 +466,7 @@
                   <c:v>LDA, 1000 trials</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>minibatch k-mean, NB Gaussian (sklearn)</c:v>
+                  <c:v>minibatch k-means, NB Gaussian (sklearn)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>minibatch k-means, NB Gaussian, 100 trials (native)</c:v>
@@ -520,7 +520,7 @@
                   <c:v>0.526</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.819</c:v>
@@ -542,11 +542,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1224042640"/>
-        <c:axId val="1241649200"/>
+        <c:axId val="1138728464"/>
+        <c:axId val="1174549184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1224042640"/>
+        <c:axId val="1138728464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241649200"/>
+        <c:crossAx val="1174549184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241649200"/>
+        <c:axId val="1174549184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1224042640"/>
+        <c:crossAx val="1138728464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,19 +1585,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1606,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="N2">
         <v>0.40300000000000002</v>
@@ -1706,7 +1706,7 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
         <v>0.54700000000000004</v>
@@ -1753,7 +1753,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="M4">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N4">
         <v>0.81899999999999995</v>
@@ -1781,22 +1781,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
